--- a/doc/世界boss.xlsx
+++ b/doc/世界boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>世界boss</t>
   </si>
@@ -24,6 +24,60 @@
     <t>规则</t>
   </si>
   <si>
+    <t>活动前30分钟主界面icon倒计时提醒</t>
+  </si>
+  <si>
+    <t>每日多次限时开启</t>
+  </si>
+  <si>
+    <t>活动开启后，玩家点击icon进入【世界boss】界面</t>
+  </si>
+  <si>
+    <t>点击【世界boss】界面的【挑战】按钮进入战斗</t>
+  </si>
+  <si>
+    <t>战斗内玩家英雄全部死亡则退出战斗，退回至【世界boss】界面，在此等待下次挑战</t>
+  </si>
+  <si>
+    <t>在此界面玩家可以选择花费钻石直接开启下次挑战或等待挑战CD冷却后自动进入战斗</t>
+  </si>
+  <si>
+    <t>进入战斗前，玩家可在【世界boss】界面选择【鼓舞】，花费一定钻石获得属性临时提升，此效果只在本次此活动内生效</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>击杀奖励</t>
+  </si>
+  <si>
+    <t>最终击杀boss的玩家获得奖励，邮件发放</t>
+  </si>
+  <si>
+    <t>排名奖励</t>
+  </si>
+  <si>
+    <t>第一名、第二-第五、第六-第十、第十以下分别获得不同奖励、邮件发放</t>
+  </si>
+  <si>
+    <t>挑战奖励</t>
+  </si>
+  <si>
+    <t>每次挑战boss获得挑战奖励，在挑战结束的结算界面发放奖励。（奖励类似活动积分，可做积分商城兑换使用，也可配置其他通用资源）</t>
+  </si>
+  <si>
+    <t>要点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每次挑战结束后退回至【世界boss】界面，并等待挑战CD，挑战CD结束后会自动进入战斗 </t>
+  </si>
+  <si>
+    <t>花费钻石直接挑战，只清除了本次的挑战cd</t>
+  </si>
+  <si>
+    <t>【鼓舞】产生的buff效果只在本次的【世界boss】活动内生效，退出活动回到普通战斗后再次进入活动时，buff依旧生效，直到本次活动结束</t>
+  </si>
+  <si>
     <t>每天定时多次开放，通过面板进入不同战斗场景，限定战斗时间</t>
   </si>
   <si>
@@ -51,18 +105,9 @@
     <t>每隔2秒钟刷新</t>
   </si>
   <si>
-    <t>奖励</t>
-  </si>
-  <si>
-    <t>击杀奖励</t>
-  </si>
-  <si>
     <t>boss最后击杀者</t>
   </si>
   <si>
-    <t>排名奖励</t>
-  </si>
-  <si>
     <t>第一名、第二-第五、第六-第十，伤害排名</t>
   </si>
   <si>
@@ -70,9 +115,6 @@
   </si>
   <si>
     <t>第十以下，伤害排名</t>
-  </si>
-  <si>
-    <t>要点</t>
   </si>
   <si>
     <t>活动定时开启，可配置每天多次。暂定2次：12点、18点</t>
@@ -113,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -140,6 +182,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -149,36 +279,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -193,46 +302,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,44 +325,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -293,103 +335,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,79 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,17 +538,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,24 +573,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -555,6 +584,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,11 +620,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,153 +631,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1084,222 +1135,353 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="J9:K41"/>
+  <dimension ref="I6:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="90.875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="123.5" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="9" spans="10:10">
-      <c r="J9" s="1" t="s">
+    <row r="6" spans="10:10">
+      <c r="J6" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="10:10">
-      <c r="J10" s="1" t="s">
+    <row r="7" spans="10:10">
+      <c r="J7" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="10:11">
-      <c r="J11" s="1">
+    <row r="8" spans="10:11">
+      <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K8" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="10:11">
-      <c r="J12" s="1">
+    <row r="9" spans="9:11">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
         <v>2</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="10:11">
-      <c r="J13" s="1">
+    <row r="10" spans="9:11">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
         <v>3</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="10:11">
-      <c r="J14" s="1">
+    <row r="11" spans="9:11">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
         <v>4</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="10:11">
-      <c r="J15" s="1">
+    <row r="12" spans="9:11">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
         <v>5</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K12" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="10:11">
-      <c r="J16" s="1">
+    <row r="13" spans="9:11">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
         <v>6</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K13" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="10:11">
-      <c r="J17" s="1">
+    <row r="14" spans="9:11">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
         <v>7</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K14" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="10:11">
-      <c r="J18" s="1">
-        <v>8</v>
-      </c>
-      <c r="K18" s="1" t="s">
+    <row r="15" spans="9:11">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="9:11">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="9:11">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="10:11">
-      <c r="J19" s="1">
-        <v>9</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="9:11">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="10:10">
-      <c r="J23" s="1" t="s">
+      <c r="K18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="10:11">
-      <c r="J24" s="1" t="s">
+    <row r="19" spans="9:11">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K19" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="10:11">
-      <c r="J25" s="1" t="s">
+    <row r="20" spans="9:11">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K20" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="10:11">
-      <c r="J26" s="1" t="s">
+    <row r="21" spans="9:11">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="9:11">
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="9:11">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="10:10">
-      <c r="J30" s="1" t="s">
+    <row r="24" spans="9:11">
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
+        <v>2</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="10:11">
-      <c r="J31" s="1">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1" t="s">
+    <row r="25" spans="9:11">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
+        <v>3</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="10:11">
-      <c r="J32" s="1">
-        <v>2</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="10:11">
-      <c r="J33" s="1">
-        <v>3</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="10:11">
-      <c r="J34" s="1">
-        <v>4</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="10:11">
-      <c r="J35" s="1">
-        <v>5</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="10:11">
-      <c r="J36" s="1">
-        <v>6</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="10:11">
-      <c r="J37" s="1">
-        <v>7</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="10:11">
-      <c r="J38" s="1">
-        <v>8</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="10:11">
-      <c r="J39" s="1">
-        <v>9</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="10:11">
-      <c r="J40" s="1">
-        <v>10</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="10:11">
-      <c r="J41" s="1">
-        <v>11</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>29</v>
-      </c>
+    <row r="26" spans="9:11">
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="9:11">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="9:11">
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="9:11">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="9:11">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="9:11">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="9:11">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="9:11">
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="9:11">
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="9:11">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="9:11">
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="9:11">
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="9:11">
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="9:11">
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="9:11">
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="9:11">
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="9:11">
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="9:11">
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="9:11">
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="9:11">
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="9:11">
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="9:11">
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="9:11">
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="9:11">
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="9:11">
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="9:11">
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="9:11">
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="9:11">
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="9:11">
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="9:11">
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="9:11">
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="9:11">
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="9:11">
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="9:11">
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="9:11">
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="9:11">
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1311,14 +1493,380 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="K6:M58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="6" ht="16.5" spans="11:13">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" ht="16.5" spans="11:13">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" ht="16.5" spans="11:13">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="11:13">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="11:13">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="11:13">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="11:13">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="11:13">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
+        <v>6</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="11:13">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <v>7</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="11:13">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
+        <v>8</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="11:13">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
+        <v>9</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="11:13">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" ht="16.5" spans="11:13">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" ht="16.5" spans="11:13">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" ht="16.5" spans="11:13">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" ht="16.5" spans="11:13">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="11:13">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="11:13">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="11:13">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" ht="16.5" spans="11:13">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" ht="16.5" spans="11:13">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" ht="16.5" spans="11:13">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" ht="16.5" spans="11:13">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="11:13">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1">
+        <v>2</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="11:13">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1">
+        <v>3</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="11:13">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1">
+        <v>4</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="11:13">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1">
+        <v>5</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="11:13">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1">
+        <v>6</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="11:13">
+      <c r="K34" s="1"/>
+      <c r="L34" s="1">
+        <v>7</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="11:13">
+      <c r="K35" s="1"/>
+      <c r="L35" s="1">
+        <v>8</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="11:13">
+      <c r="K36" s="1"/>
+      <c r="L36" s="1">
+        <v>9</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="11:13">
+      <c r="K37" s="1"/>
+      <c r="L37" s="1">
+        <v>10</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="11:13">
+      <c r="K38" s="1"/>
+      <c r="L38" s="1">
+        <v>11</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="11:13">
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" ht="16.5" spans="11:13">
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" ht="16.5" spans="11:13">
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" ht="16.5" spans="11:13">
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" ht="16.5" spans="11:13">
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" ht="16.5" spans="11:13">
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" ht="16.5" spans="11:13">
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" ht="16.5" spans="11:13">
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" ht="16.5" spans="11:13">
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" ht="16.5" spans="11:13">
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" ht="16.5" spans="11:13">
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" ht="16.5" spans="11:13">
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" ht="16.5" spans="11:13">
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" ht="16.5" spans="11:13">
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" ht="16.5" spans="11:13">
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" ht="16.5" spans="11:13">
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" ht="16.5" spans="11:13">
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" ht="16.5" spans="11:13">
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" ht="16.5" spans="11:13">
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" ht="16.5" spans="11:13">
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
